--- a/setting/note.xlsx
+++ b/setting/note.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kibakun/Desktop/Develop/2024start/koushuukai/input/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kibakun/Documents/GitHub/2024start/Excel2MaiML/setting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8F4C7F-F335-F346-9346-248783EF3206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F85A6A5-144B-D846-87E2-E4A7059AC6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20860" yWindow="2000" windowWidth="28300" windowHeight="17360" xr2:uid="{9FDB7887-10B3-854F-B331-1AAFF392492D}"/>
+    <workbookView xWindow="20860" yWindow="2000" windowWidth="22040" windowHeight="12080" xr2:uid="{9FDB7887-10B3-854F-B331-1AAFF392492D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="METHODID" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="25">
   <si>
     <t>日時</t>
     <rPh sb="0" eb="2">
@@ -62,14 +62,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>files</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>file</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>key001</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -99,23 +91,41 @@
     <t>results007</t>
   </si>
   <si>
-    <t>必ず３行め以降にデータ</t>
-    <rPh sb="0" eb="1">
-      <t>カナラズ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イコウニ</t>
-    </rPh>
+    <t>instruction001</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>１行目はID</t>
-    <rPh sb="1" eb="3">
-      <t>ギョウ</t>
-    </rPh>
+    <t>instruction002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>value1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>value2</t>
+  </si>
+  <si>
+    <t>value3</t>
+  </si>
+  <si>
+    <t>value4</t>
+  </si>
+  <si>
+    <t>value5</t>
+  </si>
+  <si>
+    <t>value6</t>
+  </si>
+  <si>
+    <t>value7</t>
+  </si>
+  <si>
+    <t>filename</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INSERTION</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -124,7 +134,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -143,18 +153,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.89999084444715716"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -170,17 +174,50 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2F892"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -189,26 +226,35 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -217,6 +263,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE2F892"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1117,135 +1168,306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A77969-E352-FD47-810B-CB1BC6720949}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15" defaultRowHeight="20"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8">
+        <v>45292.466099537036</v>
+      </c>
+      <c r="C3" s="8">
+        <v>45292.466099537036</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8">
+        <v>45292.466099537036</v>
+      </c>
+      <c r="C4" s="8">
+        <v>45292.466099537036</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="E4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
+    <row r="5" spans="1:10">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8">
+        <v>45292.466099537036</v>
+      </c>
+      <c r="C5" s="8">
+        <v>45292.466099537036</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="6">
+    <row r="6" spans="1:10">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8">
         <v>45292.466099537036</v>
       </c>
-      <c r="K3" t="s">
-        <v>16</v>
+      <c r="C6" s="8">
+        <v>45292.466099537036</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6">
+    <row r="7" spans="1:10">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8">
         <v>45292.466099537036</v>
       </c>
+      <c r="C7" s="8">
+        <v>45292.466099537036</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="6">
+    <row r="8" spans="1:10">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8">
         <v>45292.466099537036</v>
       </c>
+      <c r="C8" s="8">
+        <v>45292.466099537036</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="6">
+    <row r="9" spans="1:10">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8">
         <v>45292.466099537036</v>
       </c>
+      <c r="C9" s="8">
+        <v>45292.466099537036</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="6">
-        <v>45292.466099537036</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="6">
-        <v>45292.466099537036</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="6">
-        <v>45292.466099537036</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="5"/>
+    <row r="19" spans="2:3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
